--- a/public/property_bulk_upload_format.xlsx
+++ b/public/property_bulk_upload_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tride\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tride\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -174,6 +175,42 @@
   </si>
   <si>
     <t>defence colony</t>
+  </si>
+  <si>
+    <t>2022-02-20</t>
+  </si>
+  <si>
+    <t>landlord_id</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>bus_stop</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>restaurent</t>
+  </si>
+  <si>
+    <t>1KM</t>
+  </si>
+  <si>
+    <t>2KM</t>
   </si>
 </sst>
 </file>
@@ -209,9 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,240 +530,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="105" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="105" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>5000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="F2">
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="K2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="S2">
         <v>200</v>
       </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="N2">
+      <c r="U2">
         <v>300</v>
       </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="1">
-        <v>44607</v>
-      </c>
-      <c r="Q2">
+      <c r="W2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="S2">
-        <v>5000</v>
-      </c>
-      <c r="T2">
-        <v>10000</v>
-      </c>
-      <c r="U2">
-        <v>1000</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2">
-        <v>5000</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>827</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>47</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>110091</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>46</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
